--- a/LibraryManage/WebContent/WEB-INF/etc/요구사항목록(도서관리).xlsx
+++ b/LibraryManage/WebContent/WEB-INF/etc/요구사항목록(도서관리).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="13992" windowHeight="4908" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="108" windowWidth="13992" windowHeight="4908" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="155">
   <si>
     <t>NB-002</t>
   </si>
@@ -204,10 +204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>제목으로 책조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>북id로 책조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,22 +236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>준이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진광</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>요구사항명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,10 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>요구사항설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BookService</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,39 +260,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>페이징</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일전송</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pernaltyState (Y-&gt;N)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pernaltyState도 보이게</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원정보조회(id)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이징</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(나중에)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진광</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -534,6 +478,179 @@
   </si>
   <si>
     <t>대기중인 회원에게 도서가 대출되었을때 해당회원에게 알림 이메일을 전송.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Servlet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반납</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출목록조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기목록조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체회원목록조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체대출목록조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체대기목록조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목,저자,출판사로 책조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진광</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입화면</t>
+  </si>
+  <si>
+    <t>마이페이지 화면</t>
+  </si>
+  <si>
+    <t>책관리 화면</t>
+  </si>
+  <si>
+    <t>도서검색결과 화면</t>
+  </si>
+  <si>
+    <t>대출화면</t>
+  </si>
+  <si>
+    <t>반납화면</t>
+  </si>
+  <si>
+    <t>자신의 대기목록 화면</t>
+  </si>
+  <si>
+    <t>자신의 대출목록 화면</t>
+  </si>
+  <si>
+    <t>로그인화면</t>
+  </si>
+  <si>
+    <t>예약현황조회</t>
+  </si>
+  <si>
+    <t>회원목록조회</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 도서검색창 화면 - 제목,출판사,저자 별로 검색
+2. 사용자 메뉴 - 로그인/회원가입 or 로그아웃/마이페이지/대출목록
+3. 도서검색결과 화면 - 여기에서 RentalState에 따라서
+ 대출가능하면 -&gt; 대출 버튼클릭 -&gt; 팝업창 "관리자에게 대출하세요."
+ 대출불가능하면-&gt; 예약버튼 클릭 -&gt; 로그인여부 
+4. 로그인화면 - 회원가입 버튼도 추가
+5. 회원가입화면
+6. 마이페이지 화면 - 회원정보 보여주고, 수정,탈퇴, 대출목록조회링크,대기목록조회링크
+7. 자신의 대출목록 화면
+8. 자신의 대기목록 화면, 대기취소 버튼
+9. 관리자 메뉴 - 책추가,수정,삭제, 대출,반납,회원목록조회,예약현황조회
+10. 대출화면 - 전체도서목록을 보여주고 대출하기 버튼 
+11. 반납화면 - 현재대출중인목록 보여주고, 반납하기 버튼
+12. 책관리 화면 - 책 추가폼,수정폼,삭제폼
+13. 회원목록조회 - 전체회원목록조회 , 강제탈퇴가능?
+14. 예약현황조회 - 그냥 대기자들 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,7 +756,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -660,12 +777,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -899,7 +1010,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -957,9 +1068,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -969,13 +1077,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -987,122 +1170,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1434,7 +1548,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="31.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="50" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1454,7 +1568,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="62.4">
-      <c r="A3" s="27"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1470,7 +1584,7 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="46.8">
-      <c r="A4" s="27"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1486,7 +1600,7 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="62.4">
-      <c r="A5" s="27"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1502,7 +1616,7 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="28"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1558,8 +1672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1575,342 +1689,342 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="35.4" thickBot="1">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="49.95" customHeight="1">
+      <c r="B4" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="49.95" customHeight="1">
+      <c r="B5" s="55"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="49.95" customHeight="1">
+      <c r="B6" s="55"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="49.95" customHeight="1">
+      <c r="B7" s="55"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="49.95" customHeight="1" thickBot="1">
+      <c r="B8" s="55"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="2:10" ht="49.95" customHeight="1">
+      <c r="B9" s="55"/>
+      <c r="C9" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="2:10" ht="49.95" customHeight="1">
+      <c r="B10" s="55"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="2:10" ht="48" customHeight="1">
+      <c r="B11" s="55"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="49.95" customHeight="1">
-      <c r="B4" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="34" t="s">
+      <c r="F11" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="2:10" ht="49.8" customHeight="1">
+      <c r="B12" s="55"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="49.95" customHeight="1">
-      <c r="B5" s="66"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="F12" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="2:10" ht="82.2" customHeight="1" thickBot="1">
+      <c r="B13" s="55"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G13" s="18"/>
+      <c r="H13" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="2:10" ht="49.95" customHeight="1">
+      <c r="B14" s="55"/>
+      <c r="C14" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="49.95" customHeight="1">
-      <c r="B6" s="66"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="49.95" customHeight="1">
-      <c r="B7" s="66"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="F14" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="2:10" ht="49.95" customHeight="1">
+      <c r="B15" s="55"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F15" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="2:10" ht="49.95" customHeight="1">
+      <c r="B16" s="55"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="49.95" customHeight="1" thickBot="1">
-      <c r="B8" s="66"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="41" t="s">
+      <c r="F16" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="2:9" ht="49.95" customHeight="1">
+      <c r="B17" s="55"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F17" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" spans="2:9" ht="49.95" customHeight="1">
+      <c r="B18" s="55"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-    </row>
-    <row r="9" spans="2:10" ht="49.95" customHeight="1">
-      <c r="B9" s="66"/>
-      <c r="C9" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="45" t="s">
+      <c r="F18" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="2:9" ht="49.95" customHeight="1">
+      <c r="B19" s="55"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="2:9" ht="49.95" customHeight="1" thickBot="1">
+      <c r="B20" s="56"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-    </row>
-    <row r="10" spans="2:10" ht="49.95" customHeight="1">
-      <c r="B10" s="66"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="20"/>
-    </row>
-    <row r="11" spans="2:10" ht="48" customHeight="1">
-      <c r="B11" s="66"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-    </row>
-    <row r="12" spans="2:10" ht="49.8" customHeight="1">
-      <c r="B12" s="66"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-    </row>
-    <row r="13" spans="2:10" ht="82.2" customHeight="1" thickBot="1">
-      <c r="B13" s="66"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="57" t="s">
+      <c r="F20" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-    </row>
-    <row r="14" spans="2:10" ht="49.95" customHeight="1">
-      <c r="B14" s="66"/>
-      <c r="C14" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-    </row>
-    <row r="15" spans="2:10" ht="49.95" customHeight="1">
-      <c r="B15" s="66"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-    </row>
-    <row r="16" spans="2:10" ht="49.95" customHeight="1">
-      <c r="B16" s="66"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="I16" s="20"/>
-    </row>
-    <row r="17" spans="2:9" ht="49.95" customHeight="1">
-      <c r="B17" s="66"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="I17" s="20"/>
-    </row>
-    <row r="18" spans="2:9" ht="49.95" customHeight="1">
-      <c r="B18" s="66"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="I18" s="20"/>
-    </row>
-    <row r="19" spans="2:9" ht="49.95" customHeight="1">
-      <c r="B19" s="66"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="I19" s="20"/>
-    </row>
-    <row r="20" spans="2:9" ht="49.95" customHeight="1" thickBot="1">
-      <c r="B20" s="67"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>126</v>
-      </c>
       <c r="G20" s="18"/>
-      <c r="H20" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="I20" s="20"/>
+      <c r="H20" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="19"/>
     </row>
     <row r="21" spans="2:9" ht="49.95" customHeight="1"/>
     <row r="22" spans="2:9" ht="49.95" customHeight="1"/>
@@ -1933,228 +2047,561 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C4:F21"/>
+  <dimension ref="C2:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.59765625" customWidth="1"/>
-    <col min="5" max="5" width="30.3984375" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.59765625" customWidth="1"/>
+    <col min="6" max="6" width="6.59765625" customWidth="1"/>
+    <col min="7" max="7" width="19.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:6">
-      <c r="C4" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="19" t="s">
+    <row r="2" spans="3:16">
+      <c r="J2" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+    </row>
+    <row r="3" spans="3:16">
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+    </row>
+    <row r="4" spans="3:16">
+      <c r="C4" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+    </row>
+    <row r="5" spans="3:16">
+      <c r="C5" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+    </row>
+    <row r="6" spans="3:16">
+      <c r="C6" s="66"/>
+      <c r="D6" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+    </row>
+    <row r="7" spans="3:16">
+      <c r="C7" s="66"/>
+      <c r="D7" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+    </row>
+    <row r="8" spans="3:16">
+      <c r="C8" s="66"/>
+      <c r="D8" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+    </row>
+    <row r="9" spans="3:16">
+      <c r="C9" s="66"/>
+      <c r="D9" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6">
-      <c r="C5" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6">
-      <c r="C6" s="29"/>
-      <c r="D6" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6">
-      <c r="C7" s="29"/>
-      <c r="D7" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6">
-      <c r="C8" s="29"/>
-      <c r="D8" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6">
-      <c r="C9" s="29"/>
-      <c r="D9" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6">
-      <c r="C10" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="22" t="s">
+      <c r="E9" s="43"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+    </row>
+    <row r="10" spans="3:16">
+      <c r="C10" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6">
-      <c r="C11" s="29"/>
-      <c r="D11" s="23" t="s">
+      <c r="E10" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+    </row>
+    <row r="11" spans="3:16">
+      <c r="C11" s="66"/>
+      <c r="D11" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6">
-      <c r="C12" s="29"/>
-      <c r="D12" s="22" t="s">
+      <c r="E11" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+    </row>
+    <row r="12" spans="3:16">
+      <c r="C12" s="66"/>
+      <c r="D12" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="22" t="s">
+      <c r="E12" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+    </row>
+    <row r="13" spans="3:16">
+      <c r="C13" s="66"/>
+      <c r="D13" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+    </row>
+    <row r="14" spans="3:16">
+      <c r="C14" s="66"/>
+      <c r="D14" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="46"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+    </row>
+    <row r="15" spans="3:16">
+      <c r="C15" s="66" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="3:6">
-      <c r="C13" s="29"/>
-      <c r="D13" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6">
-      <c r="C14" s="29"/>
-      <c r="D14" s="22" t="s">
+      <c r="D15" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6">
-      <c r="C15" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="22" t="s">
+      <c r="E15" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" s="22"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+    </row>
+    <row r="16" spans="3:16">
+      <c r="C16" s="66"/>
+      <c r="D16" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6">
-      <c r="C16" s="29"/>
-      <c r="D16" s="22" t="s">
+      <c r="E16" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+    </row>
+    <row r="17" spans="3:16">
+      <c r="C17" s="66"/>
+      <c r="D17" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6">
-      <c r="C17" s="29"/>
-      <c r="D17" s="23" t="s">
+      <c r="E17" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" s="22"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+    </row>
+    <row r="18" spans="3:16" ht="17.399999999999999" customHeight="1">
+      <c r="C18" s="66"/>
+      <c r="D18" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6">
-      <c r="C18" s="29"/>
-      <c r="D18" s="23" t="s">
+      <c r="E18" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+    </row>
+    <row r="19" spans="3:16">
+      <c r="C19" s="66"/>
+      <c r="D19" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6">
-      <c r="C19" s="29"/>
-      <c r="D19" s="23" t="s">
+      <c r="E19" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+    </row>
+    <row r="20" spans="3:16">
+      <c r="C20" s="66"/>
+      <c r="D20" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6">
-      <c r="C20" s="29"/>
-      <c r="D20" s="23" t="s">
+      <c r="E20" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+    </row>
+    <row r="21" spans="3:16">
+      <c r="C21" s="66"/>
+      <c r="D21" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6">
-      <c r="C21" s="29"/>
-      <c r="D21" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>72</v>
-      </c>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+    </row>
+    <row r="22" spans="3:16">
+      <c r="E22" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" s="22"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+    </row>
+    <row r="23" spans="3:16">
+      <c r="E23" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="H23" s="22"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+    </row>
+    <row r="24" spans="3:16">
+      <c r="E24" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+    </row>
+    <row r="25" spans="3:16">
+      <c r="E25" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+    </row>
+    <row r="26" spans="3:16">
+      <c r="E26" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+    </row>
+    <row r="27" spans="3:16">
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C5:C9"/>
     <mergeCell ref="C10:C14"/>
     <mergeCell ref="C15:C21"/>
+    <mergeCell ref="J2:P27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>